--- a/ServicesCatalog_v01.xlsx
+++ b/ServicesCatalog_v01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcarvalho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schirner/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA448C7-7F08-46E4-BAC0-110F54F7CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130CC2C7-06AB-E241-9026-1DDE9CF46AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15930" xr2:uid="{339C5007-2440-476C-9204-EA225753C1D9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{339C5007-2440-476C-9204-EA225753C1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="T8.1 AI consulting" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="416">
   <si>
     <t>Point of Contact</t>
   </si>
@@ -1593,12 +1593,15 @@
   <si>
     <t>Clinical investigation, clinical study, clinical evaluation procedure, statistical analysis</t>
   </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2986,291 +2989,385 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3283,112 +3380,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3421,10 +3425,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3465,9 +3468,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3505,7 +3508,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3611,7 +3614,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3753,7 +3756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3808,106 +3811,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC2A018-630A-4D83-9323-63932600F290}">
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="88" customWidth="1"/>
-    <col min="4" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" customWidth="1"/>
-    <col min="9" max="13" width="26.5703125" customWidth="1"/>
-    <col min="14" max="14" width="32.42578125" customWidth="1"/>
-    <col min="15" max="19" width="26.5703125" customWidth="1"/>
-    <col min="20" max="20" width="31.42578125" customWidth="1"/>
-    <col min="21" max="22" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="88" customWidth="1"/>
+    <col min="4" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" customWidth="1"/>
+    <col min="9" max="13" width="26.5" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
+    <col min="15" max="19" width="26.5" customWidth="1"/>
+    <col min="20" max="20" width="31.5" customWidth="1"/>
+    <col min="21" max="22" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="257" t="s">
+    <row r="1" spans="1:23" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="257" t="s">
+      <c r="C1" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="258" t="s">
+      <c r="D1" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="259"/>
-      <c r="F1" s="255" t="s">
+      <c r="E1" s="293"/>
+      <c r="F1" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="257" t="s">
+      <c r="G1" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="257" t="s">
+      <c r="H1" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="257" t="s">
+      <c r="I1" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="269" t="s">
+      <c r="J1" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="269" t="s">
+      <c r="L1" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="269" t="s">
+      <c r="M1" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="257" t="s">
+      <c r="N1" s="275" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="271" t="s">
+      <c r="P1" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="274" t="s">
+      <c r="Q1" s="280"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="267" t="s">
+      <c r="T1" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="257" t="s">
+      <c r="U1" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="257" t="s">
+      <c r="V1" s="275" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="72" customFormat="1" ht="128.25" customHeight="1">
-      <c r="A2" s="256"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
+    <row r="2" spans="1:23" s="72" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="276"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="256"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="276"/>
       <c r="O2" s="71" t="s">
         <v>21</v>
       </c>
@@ -3920,12 +3923,12 @@
       <c r="R2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="275"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="305.25" customHeight="1">
+      <c r="S2" s="283"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -3993,14 +3996,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="85" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="240" t="s">
+    <row r="4" spans="1:23" s="85" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="246" t="s">
+      <c r="C4" s="247" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="79"/>
@@ -4025,10 +4028,10 @@
       <c r="U4" s="81"/>
       <c r="V4" s="81"/>
     </row>
-    <row r="5" spans="1:23" ht="27" customHeight="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="244"/>
-      <c r="C5" s="247"/>
+    <row r="5" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="251"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="248"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
@@ -4053,10 +4056,10 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6" spans="1:23" ht="27" customHeight="1">
-      <c r="A6" s="241"/>
-      <c r="B6" s="244"/>
-      <c r="C6" s="247"/>
+    <row r="6" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="251"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="248"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
@@ -4081,10 +4084,10 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:23" ht="41.25" customHeight="1">
-      <c r="A7" s="241"/>
-      <c r="B7" s="244"/>
-      <c r="C7" s="247"/>
+    <row r="7" spans="1:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="251"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="248"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="16" t="s">
@@ -4109,10 +4112,10 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
     </row>
-    <row r="8" spans="1:23" ht="27" customHeight="1">
-      <c r="A8" s="242"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="248"/>
+    <row r="8" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="252"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="249"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
@@ -4137,20 +4140,20 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="1:23" s="2" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A9" s="240" t="s">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="246" t="s">
+      <c r="C9" s="247" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="263" t="s">
+      <c r="D9" s="297" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="260" t="s">
+      <c r="E9" s="294" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="143" t="s">
@@ -4162,46 +4165,46 @@
       <c r="H9" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="252"/>
-      <c r="J9" s="276" t="s">
+      <c r="I9" s="270"/>
+      <c r="J9" s="284" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="276" t="s">
+      <c r="K9" s="284" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="276" t="s">
+      <c r="M9" s="284" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="276" t="s">
+      <c r="N9" s="284" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="276" t="s">
+      <c r="O9" s="284" t="s">
         <v>64</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="232" t="s">
+      <c r="R9" s="253" t="s">
         <v>66</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="252" t="s">
+      <c r="U9" s="270" t="s">
         <v>44</v>
       </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:23" ht="27" customHeight="1">
-      <c r="A10" s="241"/>
-      <c r="B10" s="244"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="261"/>
+    <row r="10" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="251"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="297"/>
+      <c r="E10" s="295"/>
       <c r="F10" s="144" t="s">
         <v>49</v>
       </c>
@@ -4211,32 +4214,32 @@
       <c r="H10" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="253"/>
-      <c r="J10" s="279"/>
-      <c r="K10" s="277"/>
+      <c r="I10" s="289"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="285"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="277"/>
-      <c r="O10" s="279"/>
+      <c r="M10" s="285"/>
+      <c r="N10" s="285"/>
+      <c r="O10" s="287"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="265"/>
+      <c r="R10" s="271"/>
       <c r="S10" s="14"/>
       <c r="T10" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="U10" s="265"/>
+      <c r="U10" s="271"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23" ht="27" customHeight="1">
-      <c r="A11" s="241"/>
-      <c r="B11" s="244"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="261"/>
+    <row r="11" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="251"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="295"/>
       <c r="F11" s="144" t="s">
         <v>51</v>
       </c>
@@ -4246,32 +4249,32 @@
       <c r="H11" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="253"/>
-      <c r="J11" s="279"/>
-      <c r="K11" s="277"/>
+      <c r="I11" s="289"/>
+      <c r="J11" s="287"/>
+      <c r="K11" s="285"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="277"/>
-      <c r="N11" s="277"/>
-      <c r="O11" s="279"/>
+      <c r="M11" s="285"/>
+      <c r="N11" s="285"/>
+      <c r="O11" s="287"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="265"/>
+      <c r="R11" s="271"/>
       <c r="S11" s="14"/>
       <c r="T11" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="U11" s="265"/>
+      <c r="U11" s="271"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="1:23" ht="27" customHeight="1">
-      <c r="A12" s="241"/>
-      <c r="B12" s="244"/>
-      <c r="C12" s="247"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="261"/>
+    <row r="12" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="251"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="295"/>
       <c r="F12" s="144" t="s">
         <v>71</v>
       </c>
@@ -4281,32 +4284,32 @@
       <c r="H12" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="253"/>
-      <c r="J12" s="279"/>
-      <c r="K12" s="277"/>
+      <c r="I12" s="289"/>
+      <c r="J12" s="287"/>
+      <c r="K12" s="285"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="277"/>
-      <c r="N12" s="277"/>
-      <c r="O12" s="279"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="287"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="265"/>
+      <c r="R12" s="271"/>
       <c r="S12" s="14"/>
       <c r="T12" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="U12" s="265"/>
+      <c r="U12" s="271"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="1:23" ht="60" customHeight="1">
-      <c r="A13" s="241"/>
-      <c r="B13" s="244"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="263"/>
-      <c r="E13" s="261"/>
+    <row r="13" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="251"/>
+      <c r="B13" s="245"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="295"/>
       <c r="F13" s="141" t="s">
         <v>72</v>
       </c>
@@ -4316,32 +4319,32 @@
       <c r="H13" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="253"/>
-      <c r="J13" s="279"/>
-      <c r="K13" s="277"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="287"/>
+      <c r="K13" s="285"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="277"/>
-      <c r="O13" s="279"/>
+      <c r="M13" s="285"/>
+      <c r="N13" s="285"/>
+      <c r="O13" s="287"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R13" s="265"/>
+      <c r="R13" s="271"/>
       <c r="S13" s="14"/>
       <c r="T13" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="U13" s="265"/>
+      <c r="U13" s="271"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:23" ht="58.5" customHeight="1">
-      <c r="A14" s="241"/>
-      <c r="B14" s="244"/>
-      <c r="C14" s="247"/>
-      <c r="D14" s="263"/>
-      <c r="E14" s="261"/>
+    <row r="14" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="251"/>
+      <c r="B14" s="245"/>
+      <c r="C14" s="248"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="295"/>
       <c r="F14" s="144" t="s">
         <v>53</v>
       </c>
@@ -4351,32 +4354,32 @@
       <c r="H14" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="253"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="277"/>
+      <c r="I14" s="289"/>
+      <c r="J14" s="287"/>
+      <c r="K14" s="285"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="277"/>
-      <c r="N14" s="277"/>
-      <c r="O14" s="279"/>
+      <c r="M14" s="285"/>
+      <c r="N14" s="285"/>
+      <c r="O14" s="287"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="265"/>
+      <c r="R14" s="271"/>
       <c r="S14" s="14"/>
       <c r="T14" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="U14" s="265"/>
+      <c r="U14" s="271"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="1:23" ht="35.25" customHeight="1">
-      <c r="A15" s="241"/>
-      <c r="B15" s="244"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="263"/>
-      <c r="E15" s="261"/>
+    <row r="15" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="251"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="248"/>
+      <c r="D15" s="297"/>
+      <c r="E15" s="295"/>
       <c r="F15" s="145" t="s">
         <v>75</v>
       </c>
@@ -4386,32 +4389,32 @@
       <c r="H15" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="253"/>
-      <c r="J15" s="279"/>
-      <c r="K15" s="277"/>
+      <c r="I15" s="289"/>
+      <c r="J15" s="287"/>
+      <c r="K15" s="285"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="277"/>
-      <c r="N15" s="277"/>
-      <c r="O15" s="279"/>
+      <c r="M15" s="285"/>
+      <c r="N15" s="285"/>
+      <c r="O15" s="287"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="265"/>
+      <c r="R15" s="271"/>
       <c r="S15" s="14"/>
       <c r="T15" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="U15" s="265"/>
+      <c r="U15" s="271"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:23" ht="76.5" customHeight="1">
-      <c r="A16" s="242"/>
-      <c r="B16" s="245"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="262"/>
+    <row r="16" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="252"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="296"/>
       <c r="F16" s="146" t="s">
         <v>78</v>
       </c>
@@ -4421,44 +4424,44 @@
       <c r="H16" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="254"/>
+      <c r="I16" s="290"/>
       <c r="J16" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="278"/>
+      <c r="K16" s="286"/>
       <c r="L16" s="13"/>
       <c r="M16" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="N16" s="278"/>
-      <c r="O16" s="280"/>
+      <c r="N16" s="286"/>
+      <c r="O16" s="288"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R16" s="266"/>
+      <c r="R16" s="272"/>
       <c r="S16" s="14"/>
       <c r="T16" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="U16" s="266"/>
+      <c r="U16" s="272"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
     </row>
-    <row r="17" spans="1:22" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A17" s="240" t="s">
+    <row r="17" spans="1:22" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="243" t="s">
+      <c r="B17" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="246" t="s">
+      <c r="C17" s="247" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="249" t="s">
+      <c r="D17" s="302" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="228" t="s">
+      <c r="E17" s="232" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -4470,53 +4473,53 @@
       <c r="H17" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="232" t="s">
+      <c r="I17" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="235" t="s">
+      <c r="J17" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="235" t="s">
+      <c r="K17" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="235" t="s">
+      <c r="L17" s="256" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="N17" s="232" t="s">
+      <c r="N17" s="253" t="s">
         <v>90</v>
       </c>
-      <c r="O17" s="232" t="s">
+      <c r="O17" s="253" t="s">
         <v>91</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="232" t="s">
+      <c r="Q17" s="253" t="s">
         <v>93</v>
       </c>
-      <c r="R17" s="232" t="s">
+      <c r="R17" s="253" t="s">
         <v>66</v>
       </c>
-      <c r="S17" s="232" t="s">
+      <c r="S17" s="253" t="s">
         <v>94</v>
       </c>
-      <c r="T17" s="232" t="s">
+      <c r="T17" s="253" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="232" t="s">
+      <c r="U17" s="253" t="s">
         <v>44</v>
       </c>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" ht="27" customHeight="1">
-      <c r="A18" s="241"/>
-      <c r="B18" s="244"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="281"/>
+    <row r="18" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="251"/>
+      <c r="B18" s="245"/>
+      <c r="C18" s="248"/>
+      <c r="D18" s="303"/>
+      <c r="E18" s="233"/>
       <c r="F18" s="11" t="s">
         <v>49</v>
       </c>
@@ -4526,31 +4529,31 @@
       <c r="H18" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="233"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="236"/>
-      <c r="L18" s="236"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="257"/>
+      <c r="K18" s="257"/>
+      <c r="L18" s="257"/>
       <c r="M18" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
+      <c r="N18" s="254"/>
+      <c r="O18" s="254"/>
       <c r="P18" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Q18" s="233"/>
-      <c r="R18" s="233"/>
-      <c r="S18" s="233"/>
-      <c r="T18" s="233"/>
-      <c r="U18" s="233"/>
+      <c r="Q18" s="254"/>
+      <c r="R18" s="254"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="1:22" ht="76.5">
-      <c r="A19" s="241"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="281"/>
+    <row r="19" spans="1:22" ht="80" x14ac:dyDescent="0.2">
+      <c r="A19" s="251"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="233"/>
       <c r="F19" s="11" t="s">
         <v>71</v>
       </c>
@@ -4560,31 +4563,31 @@
       <c r="H19" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="233"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="236"/>
-      <c r="L19" s="236"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="257"/>
+      <c r="L19" s="257"/>
       <c r="M19" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N19" s="233"/>
-      <c r="O19" s="233"/>
+      <c r="N19" s="254"/>
+      <c r="O19" s="254"/>
       <c r="P19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Q19" s="233"/>
-      <c r="R19" s="233"/>
-      <c r="S19" s="233"/>
-      <c r="T19" s="233"/>
-      <c r="U19" s="233"/>
+      <c r="Q19" s="254"/>
+      <c r="R19" s="254"/>
+      <c r="S19" s="254"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="254"/>
       <c r="V19" s="12"/>
     </row>
-    <row r="20" spans="1:22" ht="45.75">
-      <c r="A20" s="241"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="281"/>
+    <row r="20" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="251"/>
+      <c r="B20" s="245"/>
+      <c r="C20" s="248"/>
+      <c r="D20" s="303"/>
+      <c r="E20" s="233"/>
       <c r="F20" s="11" t="s">
         <v>72</v>
       </c>
@@ -4594,31 +4597,31 @@
       <c r="H20" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="233"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="236"/>
-      <c r="L20" s="236"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="257"/>
+      <c r="K20" s="257"/>
+      <c r="L20" s="257"/>
       <c r="M20" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="N20" s="233"/>
-      <c r="O20" s="233"/>
+      <c r="N20" s="254"/>
+      <c r="O20" s="254"/>
       <c r="P20" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Q20" s="233"/>
-      <c r="R20" s="233"/>
-      <c r="S20" s="233"/>
-      <c r="T20" s="233"/>
-      <c r="U20" s="233"/>
+      <c r="Q20" s="254"/>
+      <c r="R20" s="254"/>
+      <c r="S20" s="254"/>
+      <c r="T20" s="254"/>
+      <c r="U20" s="254"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="1:22" ht="45.75">
-      <c r="A21" s="241"/>
-      <c r="B21" s="244"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="281"/>
+    <row r="21" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="251"/>
+      <c r="B21" s="245"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="233"/>
       <c r="F21" s="11" t="s">
         <v>53</v>
       </c>
@@ -4628,56 +4631,56 @@
       <c r="H21" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="233"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="236"/>
-      <c r="L21" s="236"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="257"/>
+      <c r="K21" s="257"/>
+      <c r="L21" s="257"/>
       <c r="M21" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
+      <c r="N21" s="254"/>
+      <c r="O21" s="254"/>
       <c r="P21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="Q21" s="233"/>
-      <c r="R21" s="233"/>
-      <c r="S21" s="233"/>
-      <c r="T21" s="233"/>
-      <c r="U21" s="233"/>
+      <c r="Q21" s="254"/>
+      <c r="R21" s="254"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
       <c r="V21" s="12"/>
     </row>
-    <row r="22" spans="1:22" s="18" customFormat="1" ht="27" customHeight="1">
-      <c r="A22" s="242"/>
-      <c r="B22" s="245"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="282"/>
+    <row r="22" spans="1:22" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="252"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="234"/>
       <c r="F22" s="17" t="s">
         <v>104</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="234"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="258"/>
       <c r="M22" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
+      <c r="N22" s="255"/>
+      <c r="O22" s="255"/>
       <c r="P22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="Q22" s="234"/>
-      <c r="R22" s="234"/>
-      <c r="S22" s="234"/>
-      <c r="T22" s="234"/>
-      <c r="U22" s="234"/>
-    </row>
-    <row r="23" spans="1:22" s="2" customFormat="1" ht="152.25">
+      <c r="Q22" s="255"/>
+      <c r="R22" s="255"/>
+      <c r="S22" s="255"/>
+      <c r="T22" s="255"/>
+      <c r="U22" s="255"/>
+    </row>
+    <row r="23" spans="1:22" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>105</v>
       </c>
@@ -4739,20 +4742,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="2" customFormat="1" ht="72" customHeight="1">
-      <c r="A24" s="240" t="s">
+    <row r="24" spans="1:22" s="2" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="243" t="s">
+      <c r="B24" s="244" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="246" t="s">
+      <c r="C24" s="247" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="285" t="s">
+      <c r="D24" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="283" t="s">
+      <c r="E24" s="259" t="s">
         <v>123</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -4771,12 +4774,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="30.75">
-      <c r="A25" s="241"/>
-      <c r="B25" s="244"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="286"/>
-      <c r="E25" s="283"/>
+    <row r="25" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="251"/>
+      <c r="B25" s="245"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="259"/>
       <c r="F25" s="11" t="s">
         <v>128</v>
       </c>
@@ -4793,12 +4796,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="33" customHeight="1">
-      <c r="A26" s="242"/>
-      <c r="B26" s="245"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="286"/>
-      <c r="E26" s="284"/>
+    <row r="26" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="252"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="260"/>
       <c r="F26" s="11" t="s">
         <v>132</v>
       </c>
@@ -4815,14 +4818,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="2" customFormat="1" ht="60.75">
-      <c r="A27" s="240" t="s">
+    <row r="27" spans="1:22" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="243" t="s">
+      <c r="B27" s="244" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="246" t="s">
+      <c r="C27" s="247" t="s">
         <v>137</v>
       </c>
       <c r="D27"/>
@@ -4838,7 +4841,7 @@
       <c r="H27" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="N27" s="238" t="s">
+      <c r="N27" s="222" t="s">
         <v>141</v>
       </c>
       <c r="S27"/>
@@ -4846,10 +4849,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="60.75">
-      <c r="A28" s="241"/>
-      <c r="B28" s="244"/>
-      <c r="C28" s="247"/>
+    <row r="28" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" s="251"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="248"/>
       <c r="D28" s="23" t="s">
         <v>143</v>
       </c>
@@ -4865,15 +4868,15 @@
       <c r="H28" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="N28" s="239"/>
+      <c r="N28" s="301"/>
       <c r="T28" s="26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="45.75">
-      <c r="A29" s="241"/>
-      <c r="B29" s="244"/>
-      <c r="C29" s="247"/>
+    <row r="29" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="251"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="248"/>
       <c r="D29" s="23" t="s">
         <v>143</v>
       </c>
@@ -4889,19 +4892,19 @@
       <c r="H29" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="N29" s="239"/>
+      <c r="N29" s="301"/>
       <c r="T29" s="26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="2" customFormat="1" ht="45.75">
-      <c r="A30" s="240" t="s">
+    <row r="30" spans="1:22" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="250" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="243" t="s">
+      <c r="B30" s="244" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="246" t="s">
+      <c r="C30" s="247" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="134" t="s">
@@ -4919,28 +4922,28 @@
       <c r="H30" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="I30" s="217" t="s">
+      <c r="I30" s="238" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="294" t="s">
+      <c r="J30" s="219" t="s">
         <v>157</v>
       </c>
-      <c r="K30" s="217" t="s">
+      <c r="K30" s="238" t="s">
         <v>156</v>
       </c>
-      <c r="L30" s="294" t="s">
+      <c r="L30" s="219" t="s">
         <v>158</v>
       </c>
       <c r="M30" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="N30" s="238" t="s">
+      <c r="N30" s="222" t="s">
         <v>160</v>
       </c>
       <c r="P30" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="Q30" s="294" t="s">
+      <c r="Q30" s="219" t="s">
         <v>161</v>
       </c>
       <c r="R30" s="134" t="s">
@@ -4950,10 +4953,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="45.75">
-      <c r="A31" s="241"/>
-      <c r="B31" s="244"/>
-      <c r="C31" s="247"/>
+    <row r="31" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="251"/>
+      <c r="B31" s="245"/>
+      <c r="C31" s="248"/>
       <c r="D31" s="135" t="s">
         <v>143</v>
       </c>
@@ -4969,10 +4972,10 @@
       <c r="H31" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="I31" s="218"/>
-      <c r="J31" s="295"/>
-      <c r="K31" s="218"/>
-      <c r="L31" s="297"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="239"/>
+      <c r="L31" s="220"/>
       <c r="M31" s="135" t="s">
         <v>166</v>
       </c>
@@ -4980,7 +4983,7 @@
       <c r="P31" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Q31" s="295"/>
+      <c r="Q31" s="225"/>
       <c r="R31" s="135" t="s">
         <v>35</v>
       </c>
@@ -4988,10 +4991,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="30.75">
-      <c r="A32" s="241"/>
-      <c r="B32" s="244"/>
-      <c r="C32" s="247"/>
+    <row r="32" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="251"/>
+      <c r="B32" s="245"/>
+      <c r="C32" s="248"/>
       <c r="D32" s="135" t="s">
         <v>143</v>
       </c>
@@ -5007,10 +5010,10 @@
       <c r="H32" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="I32" s="218"/>
-      <c r="J32" s="295"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="297"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="220"/>
       <c r="M32" s="135" t="s">
         <v>169</v>
       </c>
@@ -5018,7 +5021,7 @@
       <c r="P32" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="Q32" s="295"/>
+      <c r="Q32" s="225"/>
       <c r="R32" s="135" t="s">
         <v>35</v>
       </c>
@@ -5026,10 +5029,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="45.75">
-      <c r="A33" s="241"/>
-      <c r="B33" s="244"/>
-      <c r="C33" s="247"/>
+    <row r="33" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="251"/>
+      <c r="B33" s="245"/>
+      <c r="C33" s="248"/>
       <c r="D33" s="135" t="s">
         <v>143</v>
       </c>
@@ -5045,10 +5048,10 @@
       <c r="H33" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="I33" s="218"/>
-      <c r="J33" s="295"/>
-      <c r="K33" s="218"/>
-      <c r="L33" s="297"/>
+      <c r="I33" s="239"/>
+      <c r="J33" s="225"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="220"/>
       <c r="M33" s="135" t="s">
         <v>173</v>
       </c>
@@ -5056,7 +5059,7 @@
       <c r="P33" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="Q33" s="295"/>
+      <c r="Q33" s="225"/>
       <c r="R33" s="135" t="s">
         <v>35</v>
       </c>
@@ -5064,10 +5067,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="18" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A34" s="242"/>
-      <c r="B34" s="245"/>
-      <c r="C34" s="248"/>
+    <row r="34" spans="1:22" s="18" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="252"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="249"/>
       <c r="D34" s="137" t="s">
         <v>143</v>
       </c>
@@ -5083,10 +5086,10 @@
       <c r="H34" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="I34" s="227"/>
-      <c r="J34" s="296"/>
-      <c r="K34" s="227"/>
-      <c r="L34" s="296"/>
+      <c r="I34" s="269"/>
+      <c r="J34" s="221"/>
+      <c r="K34" s="269"/>
+      <c r="L34" s="221"/>
       <c r="M34" s="137" t="s">
         <v>176</v>
       </c>
@@ -5094,7 +5097,7 @@
       <c r="P34" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Q34" s="296"/>
+      <c r="Q34" s="221"/>
       <c r="R34" s="137" t="s">
         <v>35</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="32" customFormat="1" ht="76.5">
+    <row r="35" spans="1:22" s="32" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="30" t="s">
         <v>177</v>
       </c>
@@ -5135,14 +5138,14 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="2" customFormat="1">
-      <c r="A36" s="240" t="s">
+    <row r="36" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="250" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="243" t="s">
+      <c r="B36" s="244" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="246" t="s">
+      <c r="C36" s="247" t="s">
         <v>182</v>
       </c>
       <c r="D36" s="1"/>
@@ -5151,14 +5154,14 @@
         <v>48</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="287" t="s">
+      <c r="H36" s="263" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="241"/>
-      <c r="B37" s="244"/>
-      <c r="C37" s="247"/>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="251"/>
+      <c r="B37" s="245"/>
+      <c r="C37" s="248"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
@@ -5167,10 +5170,10 @@
       <c r="G37" s="11"/>
       <c r="H37" s="223"/>
     </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="242"/>
-      <c r="B38" s="245"/>
-      <c r="C38" s="248"/>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="252"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="249"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11" t="s">
@@ -5179,14 +5182,14 @@
       <c r="G38" s="11"/>
       <c r="H38" s="224"/>
     </row>
-    <row r="39" spans="1:22" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A39" s="240" t="s">
+    <row r="39" spans="1:22" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="250" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="243" t="s">
+      <c r="B39" s="244" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="288" t="s">
+      <c r="C39" s="264" t="s">
         <v>186</v>
       </c>
       <c r="D39" s="34"/>
@@ -5202,10 +5205,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="27" customHeight="1">
-      <c r="A40" s="241"/>
-      <c r="B40" s="244"/>
-      <c r="C40" s="289"/>
+    <row r="40" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="251"/>
+      <c r="B40" s="245"/>
+      <c r="C40" s="265"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="11" t="s">
@@ -5219,10 +5222,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="18" customFormat="1" ht="27" customHeight="1">
-      <c r="A41" s="242"/>
-      <c r="B41" s="245"/>
-      <c r="C41" s="290"/>
+    <row r="41" spans="1:22" s="18" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="252"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="266"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="17" t="s">
@@ -5236,7 +5239,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="2" customFormat="1" ht="48">
+    <row r="42" spans="1:22" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>191</v>
       </c>
@@ -5256,20 +5259,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A43" s="240" t="s">
+    <row r="43" spans="1:22" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="243" t="s">
+      <c r="B43" s="244" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="246" t="s">
+      <c r="C43" s="247" t="s">
         <v>195</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="362" t="s">
+      <c r="E43" s="217" t="s">
         <v>197</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -5278,7 +5281,7 @@
       <c r="G43" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="363" t="s">
+      <c r="H43" s="218" t="s">
         <v>199</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -5312,10 +5315,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="39.75" customHeight="1">
-      <c r="A44" s="241"/>
-      <c r="B44" s="244"/>
-      <c r="C44" s="247"/>
+    <row r="44" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="251"/>
+      <c r="B44" s="245"/>
+      <c r="C44" s="248"/>
       <c r="D44" s="23" t="s">
         <v>143</v>
       </c>
@@ -5328,7 +5331,7 @@
       <c r="G44" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="363" t="s">
+      <c r="H44" s="218" t="s">
         <v>207</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -5362,10 +5365,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="39.75" customHeight="1">
-      <c r="A45" s="242"/>
-      <c r="B45" s="245"/>
-      <c r="C45" s="248"/>
+    <row r="45" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="252"/>
+      <c r="B45" s="246"/>
+      <c r="C45" s="249"/>
       <c r="D45" s="23" t="s">
         <v>210</v>
       </c>
@@ -5378,7 +5381,7 @@
       <c r="G45" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="363" t="s">
+      <c r="H45" s="218" t="s">
         <v>213</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -5412,206 +5415,206 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="2" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A46" s="240" t="s">
+    <row r="46" spans="1:22" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="250" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="243" t="s">
+      <c r="B46" s="244" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="246" t="s">
+      <c r="C46" s="247" t="s">
         <v>217</v>
       </c>
-      <c r="D46" s="230" t="s">
+      <c r="D46" s="300" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="228" t="s">
+      <c r="E46" s="232" t="s">
         <v>219</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="291" t="s">
+      <c r="G46" s="267" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="293" t="s">
+      <c r="H46" s="237" t="s">
         <v>221</v>
       </c>
-      <c r="I46" s="217"/>
-      <c r="J46" s="293" t="s">
+      <c r="I46" s="238"/>
+      <c r="J46" s="237" t="s">
         <v>222</v>
       </c>
-      <c r="K46" s="304" t="s">
+      <c r="K46" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="L46" s="293" t="s">
+      <c r="L46" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="M46" s="217" t="s">
+      <c r="M46" s="238" t="s">
         <v>225</v>
       </c>
-      <c r="N46" s="293" t="s">
+      <c r="N46" s="237" t="s">
         <v>209</v>
       </c>
-      <c r="O46" s="293" t="s">
+      <c r="O46" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="P46" s="293" t="s">
+      <c r="P46" s="237" t="s">
         <v>227</v>
       </c>
-      <c r="Q46" s="217" t="s">
+      <c r="Q46" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="R46" s="217" t="s">
+      <c r="R46" s="238" t="s">
         <v>228</v>
       </c>
-      <c r="S46" s="217"/>
-      <c r="T46" s="217" t="s">
+      <c r="S46" s="238"/>
+      <c r="T46" s="238" t="s">
         <v>204</v>
       </c>
-      <c r="U46" s="217"/>
-      <c r="V46" s="217"/>
-    </row>
-    <row r="47" spans="1:22" ht="139.5" customHeight="1">
-      <c r="A47" s="241"/>
-      <c r="B47" s="244"/>
-      <c r="C47" s="247"/>
-      <c r="D47" s="231"/>
-      <c r="E47" s="281"/>
+      <c r="U46" s="238"/>
+      <c r="V46" s="238"/>
+    </row>
+    <row r="47" spans="1:22" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="251"/>
+      <c r="B47" s="245"/>
+      <c r="C47" s="248"/>
+      <c r="D47" s="242"/>
+      <c r="E47" s="233"/>
       <c r="F47" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="292"/>
-      <c r="H47" s="221"/>
-      <c r="I47" s="218"/>
-      <c r="J47" s="221"/>
-      <c r="K47" s="305"/>
-      <c r="L47" s="221"/>
-      <c r="M47" s="218"/>
-      <c r="N47" s="221"/>
-      <c r="O47" s="221"/>
-      <c r="P47" s="221"/>
-      <c r="Q47" s="218"/>
-      <c r="R47" s="218"/>
-      <c r="S47" s="218"/>
-      <c r="T47" s="218"/>
-      <c r="U47" s="218"/>
-      <c r="V47" s="218"/>
-    </row>
-    <row r="48" spans="1:22" ht="39.75" customHeight="1">
-      <c r="A48" s="241"/>
-      <c r="B48" s="244"/>
-      <c r="C48" s="247"/>
-      <c r="D48" s="231" t="s">
+      <c r="G47" s="268"/>
+      <c r="H47" s="235"/>
+      <c r="I47" s="239"/>
+      <c r="J47" s="235"/>
+      <c r="K47" s="241"/>
+      <c r="L47" s="235"/>
+      <c r="M47" s="239"/>
+      <c r="N47" s="235"/>
+      <c r="O47" s="235"/>
+      <c r="P47" s="235"/>
+      <c r="Q47" s="239"/>
+      <c r="R47" s="239"/>
+      <c r="S47" s="239"/>
+      <c r="T47" s="239"/>
+      <c r="U47" s="239"/>
+      <c r="V47" s="239"/>
+    </row>
+    <row r="48" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="251"/>
+      <c r="B48" s="245"/>
+      <c r="C48" s="248"/>
+      <c r="D48" s="242" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="281" t="s">
+      <c r="E48" s="233" t="s">
         <v>229</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="219" t="s">
+      <c r="G48" s="305" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="221" t="s">
+      <c r="H48" s="235" t="s">
         <v>230</v>
       </c>
       <c r="I48" s="223"/>
-      <c r="J48" s="221" t="s">
+      <c r="J48" s="235" t="s">
         <v>231</v>
       </c>
-      <c r="K48" s="225" t="s">
+      <c r="K48" s="307" t="s">
         <v>232</v>
       </c>
-      <c r="L48" s="218" t="s">
+      <c r="L48" s="239" t="s">
         <v>233</v>
       </c>
-      <c r="M48" s="221" t="s">
+      <c r="M48" s="235" t="s">
         <v>234</v>
       </c>
-      <c r="N48" s="221" t="s">
+      <c r="N48" s="235" t="s">
         <v>235</v>
       </c>
-      <c r="O48" s="221" t="s">
+      <c r="O48" s="235" t="s">
         <v>226</v>
       </c>
-      <c r="P48" s="221" t="s">
+      <c r="P48" s="235" t="s">
         <v>227</v>
       </c>
-      <c r="Q48" s="218" t="s">
+      <c r="Q48" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="R48" s="218" t="s">
+      <c r="R48" s="239" t="s">
         <v>228</v>
       </c>
       <c r="S48" s="223"/>
-      <c r="T48" s="218" t="s">
+      <c r="T48" s="239" t="s">
         <v>204</v>
       </c>
       <c r="U48" s="223"/>
       <c r="V48" s="223"/>
     </row>
-    <row r="49" spans="1:22" ht="39.75" customHeight="1">
-      <c r="A49" s="241"/>
-      <c r="B49" s="244"/>
-      <c r="C49" s="247"/>
-      <c r="D49" s="231"/>
-      <c r="E49" s="281"/>
+    <row r="49" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="251"/>
+      <c r="B49" s="245"/>
+      <c r="C49" s="248"/>
+      <c r="D49" s="242"/>
+      <c r="E49" s="233"/>
       <c r="F49" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="219"/>
-      <c r="H49" s="221"/>
+      <c r="G49" s="305"/>
+      <c r="H49" s="235"/>
       <c r="I49" s="223"/>
-      <c r="J49" s="221"/>
-      <c r="K49" s="225"/>
-      <c r="L49" s="218"/>
-      <c r="M49" s="221"/>
-      <c r="N49" s="221"/>
-      <c r="O49" s="221"/>
-      <c r="P49" s="221"/>
-      <c r="Q49" s="218"/>
-      <c r="R49" s="218"/>
+      <c r="J49" s="235"/>
+      <c r="K49" s="307"/>
+      <c r="L49" s="239"/>
+      <c r="M49" s="235"/>
+      <c r="N49" s="235"/>
+      <c r="O49" s="235"/>
+      <c r="P49" s="235"/>
+      <c r="Q49" s="239"/>
+      <c r="R49" s="239"/>
       <c r="S49" s="223"/>
-      <c r="T49" s="218"/>
+      <c r="T49" s="239"/>
       <c r="U49" s="223"/>
       <c r="V49" s="223"/>
     </row>
-    <row r="50" spans="1:22" ht="52.5" customHeight="1">
-      <c r="A50" s="242"/>
-      <c r="B50" s="245"/>
-      <c r="C50" s="248"/>
-      <c r="D50" s="306"/>
-      <c r="E50" s="282"/>
+    <row r="50" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="252"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="249"/>
+      <c r="D50" s="243"/>
+      <c r="E50" s="234"/>
       <c r="F50" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="220"/>
-      <c r="H50" s="222"/>
+      <c r="G50" s="306"/>
+      <c r="H50" s="236"/>
       <c r="I50" s="224"/>
-      <c r="J50" s="222"/>
-      <c r="K50" s="226"/>
-      <c r="L50" s="227"/>
-      <c r="M50" s="222"/>
-      <c r="N50" s="222"/>
-      <c r="O50" s="222"/>
-      <c r="P50" s="222"/>
-      <c r="Q50" s="227"/>
-      <c r="R50" s="227"/>
+      <c r="J50" s="236"/>
+      <c r="K50" s="308"/>
+      <c r="L50" s="269"/>
+      <c r="M50" s="236"/>
+      <c r="N50" s="236"/>
+      <c r="O50" s="236"/>
+      <c r="P50" s="236"/>
+      <c r="Q50" s="269"/>
+      <c r="R50" s="269"/>
       <c r="S50" s="224"/>
-      <c r="T50" s="227"/>
+      <c r="T50" s="269"/>
       <c r="U50" s="224"/>
       <c r="V50" s="224"/>
     </row>
-    <row r="51" spans="1:22" s="2" customFormat="1" ht="152.25">
-      <c r="A51" s="298" t="s">
+    <row r="51" spans="1:22" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A51" s="226" t="s">
         <v>236</v>
       </c>
-      <c r="B51" s="301" t="s">
+      <c r="B51" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="228" t="s">
+      <c r="C51" s="232" t="s">
         <v>237</v>
       </c>
       <c r="D51" s="22"/>
@@ -5626,10 +5629,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="299"/>
-      <c r="B52" s="302"/>
-      <c r="C52" s="281"/>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="227"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="233"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="11" t="s">
@@ -5638,10 +5641,10 @@
       <c r="G52" s="11"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:22" s="18" customFormat="1" ht="45.75">
-      <c r="A53" s="300"/>
-      <c r="B53" s="303"/>
-      <c r="C53" s="282"/>
+    <row r="53" spans="1:22" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="228"/>
+      <c r="B53" s="231"/>
+      <c r="C53" s="234"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="17" t="s">
@@ -5655,14 +5658,14 @@
       </c>
       <c r="L53" s="102"/>
     </row>
-    <row r="54" spans="1:22" ht="56.25" customHeight="1">
-      <c r="A54" s="228" t="s">
+    <row r="54" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="232" t="s">
         <v>242</v>
       </c>
-      <c r="B54" s="228" t="s">
+      <c r="B54" s="232" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="228" t="s">
+      <c r="C54" s="232" t="s">
         <v>217</v>
       </c>
       <c r="D54" s="120" t="s">
@@ -5711,10 +5714,10 @@
       </c>
       <c r="U54" s="115"/>
     </row>
-    <row r="55" spans="1:22" ht="60.75">
-      <c r="A55" s="229"/>
-      <c r="B55" s="229"/>
-      <c r="C55" s="229"/>
+    <row r="55" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="299"/>
+      <c r="B55" s="299"/>
+      <c r="C55" s="299"/>
       <c r="D55" s="129" t="s">
         <v>254</v>
       </c>
@@ -5763,34 +5766,92 @@
       <c r="U55" s="163"/>
       <c r="V55" s="102"/>
     </row>
-    <row r="69" spans="4:4">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="N30:N34"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="N48:N50"/>
-    <mergeCell ref="O48:O50"/>
-    <mergeCell ref="P48:P50"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="L48:L50"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="V48:V50"/>
+    <mergeCell ref="Q48:Q50"/>
+    <mergeCell ref="R48:R50"/>
+    <mergeCell ref="S48:S50"/>
+    <mergeCell ref="T48:T50"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="U17:U22"/>
+    <mergeCell ref="T17:T22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="S17:S22"/>
+    <mergeCell ref="R17:R22"/>
+    <mergeCell ref="Q17:Q22"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="I9:I16"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="U9:U16"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K9:K16"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="M9:M15"/>
+    <mergeCell ref="N9:N16"/>
+    <mergeCell ref="O9:O16"/>
+    <mergeCell ref="R9:R16"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="I17:I22"/>
     <mergeCell ref="K17:K22"/>
@@ -5815,82 +5876,29 @@
     <mergeCell ref="I30:I34"/>
     <mergeCell ref="J30:J34"/>
     <mergeCell ref="K30:K34"/>
-    <mergeCell ref="U9:U16"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="K9:K16"/>
-    <mergeCell ref="J9:J15"/>
-    <mergeCell ref="M9:M15"/>
-    <mergeCell ref="N9:N16"/>
-    <mergeCell ref="O9:O16"/>
-    <mergeCell ref="R9:R16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="I9:I16"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="U17:U22"/>
-    <mergeCell ref="T17:T22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="S17:S22"/>
-    <mergeCell ref="R17:R22"/>
-    <mergeCell ref="Q17:Q22"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="U46:U47"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="K48:K50"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="V48:V50"/>
-    <mergeCell ref="Q48:Q50"/>
-    <mergeCell ref="R48:R50"/>
-    <mergeCell ref="S48:S50"/>
-    <mergeCell ref="T48:T50"/>
-    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="N30:N34"/>
+    <mergeCell ref="Q30:Q34"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="N48:N50"/>
+    <mergeCell ref="O48:O50"/>
+    <mergeCell ref="P48:P50"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <conditionalFormatting sqref="L30">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -5915,93 +5923,93 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="93" customWidth="1"/>
-    <col min="4" max="6" width="26.5703125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="58.140625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="55" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="93" customWidth="1"/>
+    <col min="4" max="6" width="26.5" style="55" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="55" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="55" customWidth="1"/>
+    <col min="9" max="9" width="58.1640625" style="55" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="55" customWidth="1"/>
     <col min="11" max="11" width="39" style="55" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" style="55" customWidth="1"/>
-    <col min="13" max="14" width="26.5703125" customWidth="1"/>
-    <col min="15" max="19" width="26.5703125" style="55" customWidth="1"/>
-    <col min="20" max="20" width="26.5703125" customWidth="1"/>
-    <col min="21" max="22" width="26.5703125" style="55" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="55"/>
+    <col min="12" max="12" width="26.5" style="55" customWidth="1"/>
+    <col min="13" max="14" width="26.5" customWidth="1"/>
+    <col min="15" max="19" width="26.5" style="55" customWidth="1"/>
+    <col min="20" max="20" width="26.5" customWidth="1"/>
+    <col min="21" max="22" width="26.5" style="55" customWidth="1"/>
+    <col min="23" max="23" width="26.5" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="A1" s="257" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="257" t="s">
+      <c r="C1" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="338" t="s">
+      <c r="D1" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="339"/>
+      <c r="E1" s="319"/>
       <c r="F1" s="168"/>
-      <c r="G1" s="257" t="s">
+      <c r="G1" s="275" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="257" t="s">
+      <c r="H1" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="257" t="s">
+      <c r="I1" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="257" t="s">
+      <c r="J1" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="269" t="s">
+      <c r="L1" s="277" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="269" t="s">
+      <c r="M1" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="269" t="s">
+      <c r="N1" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="257" t="s">
+      <c r="O1" s="275" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="271" t="s">
+      <c r="Q1" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="272"/>
-      <c r="S1" s="273"/>
-      <c r="T1" s="274" t="s">
+      <c r="R1" s="280"/>
+      <c r="S1" s="281"/>
+      <c r="T1" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="267" t="s">
+      <c r="U1" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="257" t="s">
+      <c r="V1" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="257" t="s">
+      <c r="W1" s="275" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="72" customFormat="1" ht="99">
-      <c r="A2" s="256"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
+    <row r="2" spans="1:23" s="72" customFormat="1" ht="104" x14ac:dyDescent="0.15">
+      <c r="A2" s="276"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="70" t="s">
         <v>19</v>
       </c>
@@ -6011,15 +6019,15 @@
       <c r="F2" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="256"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="276"/>
       <c r="P2" s="71" t="s">
         <v>264</v>
       </c>
@@ -6032,12 +6040,12 @@
       <c r="S2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="275"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-    </row>
-    <row r="3" spans="1:23" ht="121.5">
+      <c r="T2" s="283"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+    </row>
+    <row r="3" spans="1:23" ht="130" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>266</v>
       </c>
@@ -6104,14 +6112,14 @@
       <c r="V3" s="76"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="44.25">
-      <c r="A4" s="316" t="s">
+    <row r="4" spans="1:23" ht="52" x14ac:dyDescent="0.15">
+      <c r="A4" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="319" t="s">
+      <c r="B4" s="333" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="321" t="s">
+      <c r="C4" s="320" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="169"/>
@@ -6141,9 +6149,9 @@
       <c r="V4" s="177"/>
       <c r="W4" s="81"/>
     </row>
-    <row r="5" spans="1:23" ht="44.25">
-      <c r="A5" s="317"/>
-      <c r="B5" s="310"/>
+    <row r="5" spans="1:23" ht="52" x14ac:dyDescent="0.15">
+      <c r="A5" s="324"/>
+      <c r="B5" s="330"/>
       <c r="C5" s="322"/>
       <c r="D5" s="170"/>
       <c r="E5" s="170"/>
@@ -6172,9 +6180,9 @@
       <c r="V5" s="184"/>
       <c r="W5" s="12"/>
     </row>
-    <row r="6" spans="1:23" ht="27" customHeight="1">
-      <c r="A6" s="317"/>
-      <c r="B6" s="310"/>
+    <row r="6" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="324"/>
+      <c r="B6" s="330"/>
       <c r="C6" s="322"/>
       <c r="D6" s="170"/>
       <c r="E6" s="170"/>
@@ -6203,9 +6211,9 @@
       <c r="V6" s="184"/>
       <c r="W6" s="12"/>
     </row>
-    <row r="7" spans="1:23" ht="41.25" customHeight="1">
-      <c r="A7" s="317"/>
-      <c r="B7" s="310"/>
+    <row r="7" spans="1:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="324"/>
+      <c r="B7" s="330"/>
       <c r="C7" s="322"/>
       <c r="D7" s="170"/>
       <c r="E7" s="170"/>
@@ -6234,9 +6242,9 @@
       <c r="V7" s="184"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="1:23" ht="44.25">
-      <c r="A8" s="317"/>
-      <c r="B8" s="310"/>
+    <row r="8" spans="1:23" ht="52" x14ac:dyDescent="0.15">
+      <c r="A8" s="324"/>
+      <c r="B8" s="330"/>
       <c r="C8" s="322"/>
       <c r="D8" s="170"/>
       <c r="E8" s="170"/>
@@ -6265,9 +6273,9 @@
       <c r="V8" s="184"/>
       <c r="W8" s="12"/>
     </row>
-    <row r="9" spans="1:23" ht="27" customHeight="1">
-      <c r="A9" s="317"/>
-      <c r="B9" s="310"/>
+    <row r="9" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="324"/>
+      <c r="B9" s="330"/>
       <c r="C9" s="322"/>
       <c r="D9" s="170"/>
       <c r="E9" s="170"/>
@@ -6296,10 +6304,10 @@
       <c r="V9" s="184"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:23" ht="25.5" customHeight="1">
-      <c r="A10" s="318"/>
-      <c r="B10" s="320"/>
-      <c r="C10" s="323"/>
+    <row r="10" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="325"/>
+      <c r="B10" s="332"/>
+      <c r="C10" s="321"/>
       <c r="D10" s="170"/>
       <c r="E10" s="170"/>
       <c r="F10" s="215" t="s">
@@ -6327,14 +6335,14 @@
       <c r="V10" s="184"/>
       <c r="W10" s="12"/>
     </row>
-    <row r="11" spans="1:23" s="62" customFormat="1" ht="159" customHeight="1">
-      <c r="A11" s="316" t="s">
+    <row r="11" spans="1:23" s="62" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="323" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="326" t="s">
+      <c r="B11" s="336" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="328" t="s">
+      <c r="C11" s="326" t="s">
         <v>137</v>
       </c>
       <c r="D11" s="58" t="s">
@@ -6349,10 +6357,10 @@
       <c r="G11" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="H11" s="331" t="s">
+      <c r="H11" s="338" t="s">
         <v>291</v>
       </c>
-      <c r="I11" s="321" t="s">
+      <c r="I11" s="320" t="s">
         <v>292</v>
       </c>
       <c r="J11" s="188"/>
@@ -6360,7 +6368,7 @@
       <c r="L11" s="189"/>
       <c r="M11" s="181"/>
       <c r="N11" s="181"/>
-      <c r="O11" s="321" t="s">
+      <c r="O11" s="320" t="s">
         <v>293</v>
       </c>
       <c r="P11" s="194"/>
@@ -6372,10 +6380,10 @@
       <c r="V11" s="188"/>
       <c r="W11" s="12"/>
     </row>
-    <row r="12" spans="1:23" ht="44.25">
-      <c r="A12" s="317"/>
-      <c r="B12" s="311"/>
-      <c r="C12" s="329"/>
+    <row r="12" spans="1:23" ht="39" x14ac:dyDescent="0.15">
+      <c r="A12" s="324"/>
+      <c r="B12" s="331"/>
+      <c r="C12" s="327"/>
       <c r="D12" s="59" t="s">
         <v>269</v>
       </c>
@@ -6388,7 +6396,7 @@
       <c r="G12" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="H12" s="332"/>
+      <c r="H12" s="339"/>
       <c r="I12" s="322"/>
       <c r="J12" s="190"/>
       <c r="K12" s="191"/>
@@ -6405,10 +6413,10 @@
       <c r="V12" s="190"/>
       <c r="W12" s="12"/>
     </row>
-    <row r="13" spans="1:23" ht="27" customHeight="1">
-      <c r="A13" s="317"/>
-      <c r="B13" s="311"/>
-      <c r="C13" s="329"/>
+    <row r="13" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="324"/>
+      <c r="B13" s="331"/>
+      <c r="C13" s="327"/>
       <c r="D13" s="59" t="s">
         <v>269</v>
       </c>
@@ -6421,7 +6429,7 @@
       <c r="G13" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="333"/>
+      <c r="H13" s="340"/>
       <c r="I13" s="322"/>
       <c r="J13" s="190"/>
       <c r="K13" s="191"/>
@@ -6438,23 +6446,23 @@
       <c r="V13" s="190"/>
       <c r="W13" s="12"/>
     </row>
-    <row r="14" spans="1:23" ht="54.75" customHeight="1">
-      <c r="A14" s="317"/>
-      <c r="B14" s="311"/>
-      <c r="C14" s="329"/>
+    <row r="14" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="324"/>
+      <c r="B14" s="331"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="59" t="s">
         <v>269</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="F14" s="334" t="s">
+      <c r="F14" s="341" t="s">
         <v>282</v>
       </c>
       <c r="G14" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="H14" s="331" t="s">
+      <c r="H14" s="338" t="s">
         <v>297</v>
       </c>
       <c r="I14" s="322" t="s">
@@ -6477,26 +6485,26 @@
       <c r="V14" s="190"/>
       <c r="W14" s="12"/>
     </row>
-    <row r="15" spans="1:23" s="65" customFormat="1" ht="66" customHeight="1">
-      <c r="A15" s="318"/>
-      <c r="B15" s="327"/>
-      <c r="C15" s="330"/>
+    <row r="15" spans="1:23" s="65" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="325"/>
+      <c r="B15" s="337"/>
+      <c r="C15" s="328"/>
       <c r="D15" s="61" t="s">
         <v>269</v>
       </c>
       <c r="E15" s="61"/>
-      <c r="F15" s="335"/>
+      <c r="F15" s="342"/>
       <c r="G15" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="H15" s="333"/>
-      <c r="I15" s="323"/>
+      <c r="H15" s="340"/>
+      <c r="I15" s="321"/>
       <c r="J15" s="192"/>
       <c r="K15" s="193"/>
       <c r="L15" s="193"/>
       <c r="M15" s="181"/>
       <c r="N15" s="181"/>
-      <c r="O15" s="323"/>
+      <c r="O15" s="321"/>
       <c r="P15" s="196"/>
       <c r="Q15" s="197"/>
       <c r="R15" s="196"/>
@@ -6506,14 +6514,14 @@
       <c r="V15" s="192"/>
       <c r="W15" s="12"/>
     </row>
-    <row r="16" spans="1:23" s="62" customFormat="1" ht="54" customHeight="1">
-      <c r="A16" s="316" t="s">
+    <row r="16" spans="1:23" s="62" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="323" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="319" t="s">
+      <c r="B16" s="333" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="321" t="s">
+      <c r="C16" s="320" t="s">
         <v>152</v>
       </c>
       <c r="D16" s="138" t="s">
@@ -6531,48 +6539,48 @@
       <c r="H16" s="140" t="s">
         <v>303</v>
       </c>
-      <c r="I16" s="324" t="s">
+      <c r="I16" s="309" t="s">
         <v>304</v>
       </c>
-      <c r="J16" s="324" t="s">
+      <c r="J16" s="309" t="s">
         <v>156</v>
       </c>
-      <c r="K16" s="342" t="s">
+      <c r="K16" s="314" t="s">
         <v>305</v>
       </c>
-      <c r="L16" s="344" t="s">
+      <c r="L16" s="316" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="324" t="s">
+      <c r="M16" s="309" t="s">
         <v>306</v>
       </c>
-      <c r="N16" s="324" t="s">
+      <c r="N16" s="309" t="s">
         <v>307</v>
       </c>
-      <c r="O16" s="307" t="s">
+      <c r="O16" s="311" t="s">
         <v>308</v>
       </c>
       <c r="P16" s="56"/>
-      <c r="Q16" s="324" t="s">
+      <c r="Q16" s="309" t="s">
         <v>309</v>
       </c>
-      <c r="R16" s="321" t="s">
+      <c r="R16" s="320" t="s">
         <v>310</v>
       </c>
-      <c r="S16" s="307" t="s">
+      <c r="S16" s="311" t="s">
         <v>156</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="321" t="s">
+      <c r="U16" s="320" t="s">
         <v>311</v>
       </c>
       <c r="V16" s="57"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" spans="1:23" s="65" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A17" s="318"/>
-      <c r="B17" s="320"/>
-      <c r="C17" s="323"/>
+    <row r="17" spans="1:23" s="65" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="325"/>
+      <c r="B17" s="332"/>
+      <c r="C17" s="321"/>
       <c r="D17" s="139" t="s">
         <v>301</v>
       </c>
@@ -6588,23 +6596,23 @@
       <c r="H17" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="I17" s="325"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="343"/>
-      <c r="L17" s="345"/>
-      <c r="M17" s="341"/>
-      <c r="N17" s="341"/>
-      <c r="O17" s="340"/>
+      <c r="I17" s="310"/>
+      <c r="J17" s="310"/>
+      <c r="K17" s="315"/>
+      <c r="L17" s="317"/>
+      <c r="M17" s="313"/>
+      <c r="N17" s="313"/>
+      <c r="O17" s="312"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="325"/>
-      <c r="R17" s="323"/>
-      <c r="S17" s="340"/>
+      <c r="Q17" s="310"/>
+      <c r="R17" s="321"/>
+      <c r="S17" s="312"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="323"/>
+      <c r="U17" s="321"/>
       <c r="V17" s="64"/>
       <c r="W17" s="12"/>
     </row>
-    <row r="18" spans="1:23" s="209" customFormat="1" ht="33">
+    <row r="18" spans="1:23" s="209" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="198" t="s">
         <v>181</v>
       </c>
@@ -6637,99 +6645,99 @@
       <c r="V18" s="203"/>
       <c r="W18" s="208"/>
     </row>
-    <row r="19" spans="1:23" s="62" customFormat="1" ht="42" customHeight="1">
-      <c r="A19" s="316" t="s">
+    <row r="19" spans="1:23" s="62" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="323" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="328" t="s">
+      <c r="B19" s="326" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="321" t="s">
+      <c r="C19" s="320" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="319" t="s">
+      <c r="D19" s="333" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="228" t="s">
+      <c r="E19" s="232" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="336" t="s">
+      <c r="F19" s="334" t="s">
         <v>281</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="291" t="s">
+      <c r="H19" s="267" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="321" t="s">
+      <c r="I19" s="320" t="s">
         <v>313</v>
       </c>
       <c r="J19" s="188"/>
-      <c r="K19" s="312" t="s">
+      <c r="K19" s="344" t="s">
         <v>222</v>
       </c>
-      <c r="L19" s="314" t="s">
+      <c r="L19" s="346" t="s">
         <v>314</v>
       </c>
-      <c r="M19" s="312" t="s">
+      <c r="M19" s="344" t="s">
         <v>224</v>
       </c>
-      <c r="N19" s="312" t="s">
+      <c r="N19" s="344" t="s">
         <v>225</v>
       </c>
-      <c r="O19" s="293" t="s">
+      <c r="O19" s="237" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="293" t="s">
+      <c r="P19" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="Q19" s="293" t="s">
+      <c r="Q19" s="237" t="s">
         <v>227</v>
       </c>
-      <c r="R19" s="217" t="s">
+      <c r="R19" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="S19" s="217" t="s">
+      <c r="S19" s="238" t="s">
         <v>228</v>
       </c>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217" t="s">
+      <c r="T19" s="238"/>
+      <c r="U19" s="238" t="s">
         <v>204</v>
       </c>
-      <c r="V19" s="307"/>
-      <c r="W19" s="265"/>
-    </row>
-    <row r="20" spans="1:23" ht="81.75" customHeight="1">
-      <c r="A20" s="317"/>
-      <c r="B20" s="329"/>
+      <c r="V19" s="311"/>
+      <c r="W19" s="271"/>
+    </row>
+    <row r="20" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="324"/>
+      <c r="B20" s="327"/>
       <c r="C20" s="322"/>
-      <c r="D20" s="310"/>
-      <c r="E20" s="281"/>
-      <c r="F20" s="337"/>
+      <c r="D20" s="330"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="335"/>
       <c r="G20" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="292"/>
-      <c r="I20" s="308"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="329"/>
       <c r="J20" s="190"/>
-      <c r="K20" s="313"/>
-      <c r="L20" s="315"/>
-      <c r="M20" s="313"/>
-      <c r="N20" s="313"/>
-      <c r="O20" s="221"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="221"/>
-      <c r="R20" s="218"/>
-      <c r="S20" s="218"/>
-      <c r="T20" s="218"/>
-      <c r="U20" s="218"/>
-      <c r="V20" s="308"/>
-      <c r="W20" s="265"/>
-    </row>
-    <row r="21" spans="1:23" ht="38.25" customHeight="1">
-      <c r="A21" s="317"/>
-      <c r="B21" s="329"/>
+      <c r="K20" s="345"/>
+      <c r="L20" s="347"/>
+      <c r="M20" s="345"/>
+      <c r="N20" s="345"/>
+      <c r="O20" s="235"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="239"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="239"/>
+      <c r="V20" s="329"/>
+      <c r="W20" s="271"/>
+    </row>
+    <row r="21" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="324"/>
+      <c r="B21" s="327"/>
       <c r="C21" s="322"/>
       <c r="D21" s="59" t="s">
         <v>218</v>
@@ -6746,7 +6754,7 @@
       <c r="H21" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="I21" s="308"/>
+      <c r="I21" s="329"/>
       <c r="J21" s="210"/>
       <c r="K21" s="59" t="s">
         <v>318</v>
@@ -6777,9 +6785,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="33">
-      <c r="A22" s="317"/>
-      <c r="B22" s="329"/>
+    <row r="22" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+      <c r="A22" s="324"/>
+      <c r="B22" s="327"/>
       <c r="C22" s="322"/>
       <c r="D22" s="59" t="s">
         <v>254</v>
@@ -6796,17 +6804,17 @@
       <c r="H22" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="I22" s="310" t="s">
+      <c r="I22" s="330" t="s">
         <v>325</v>
       </c>
       <c r="J22" s="210"/>
-      <c r="K22" s="310" t="s">
+      <c r="K22" s="330" t="s">
         <v>326</v>
       </c>
-      <c r="L22" s="309" t="s">
+      <c r="L22" s="343" t="s">
         <v>327</v>
       </c>
-      <c r="M22" s="218" t="s">
+      <c r="M22" s="239" t="s">
         <v>328</v>
       </c>
       <c r="N22" s="126" t="s">
@@ -6829,9 +6837,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="33">
-      <c r="A23" s="317"/>
-      <c r="B23" s="329"/>
+    <row r="23" spans="1:23" ht="27" x14ac:dyDescent="0.2">
+      <c r="A23" s="324"/>
+      <c r="B23" s="327"/>
       <c r="C23" s="322"/>
       <c r="D23" s="59" t="s">
         <v>254</v>
@@ -6848,11 +6856,11 @@
       <c r="H23" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="I23" s="311"/>
+      <c r="I23" s="331"/>
       <c r="J23" s="210"/>
-      <c r="K23" s="311"/>
-      <c r="L23" s="309"/>
-      <c r="M23" s="218"/>
+      <c r="K23" s="331"/>
+      <c r="L23" s="343"/>
+      <c r="M23" s="239"/>
       <c r="N23" s="126" t="s">
         <v>103</v>
       </c>
@@ -6873,9 +6881,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="33">
-      <c r="A24" s="317"/>
-      <c r="B24" s="329"/>
+    <row r="24" spans="1:23" ht="40" x14ac:dyDescent="0.2">
+      <c r="A24" s="324"/>
+      <c r="B24" s="327"/>
       <c r="C24" s="322"/>
       <c r="D24" s="59" t="s">
         <v>333</v>
@@ -6925,9 +6933,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="66.75">
-      <c r="A25" s="317"/>
-      <c r="B25" s="329"/>
+    <row r="25" spans="1:23" ht="66" x14ac:dyDescent="0.2">
+      <c r="A25" s="324"/>
+      <c r="B25" s="327"/>
       <c r="C25" s="322"/>
       <c r="D25" s="59" t="s">
         <v>218</v>
@@ -6944,7 +6952,7 @@
       <c r="H25" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="I25" s="310" t="s">
+      <c r="I25" s="330" t="s">
         <v>343</v>
       </c>
       <c r="J25" s="210"/>
@@ -6974,9 +6982,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="76.5">
-      <c r="A26" s="317"/>
-      <c r="B26" s="329"/>
+    <row r="26" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+      <c r="A26" s="324"/>
+      <c r="B26" s="327"/>
       <c r="C26" s="322"/>
       <c r="D26" s="59" t="s">
         <v>218</v>
@@ -6993,7 +7001,7 @@
       <c r="H26" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="I26" s="310"/>
+      <c r="I26" s="330"/>
       <c r="J26" s="66" t="s">
         <v>350</v>
       </c>
@@ -7026,10 +7034,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="65" customFormat="1" ht="91.5">
-      <c r="A27" s="318"/>
-      <c r="B27" s="330"/>
-      <c r="C27" s="323"/>
+    <row r="27" spans="1:23" s="65" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A27" s="325"/>
+      <c r="B27" s="328"/>
+      <c r="C27" s="321"/>
       <c r="D27" s="61" t="s">
         <v>218</v>
       </c>
@@ -7045,7 +7053,7 @@
       <c r="H27" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="I27" s="320"/>
+      <c r="I27" s="332"/>
       <c r="J27" s="211"/>
       <c r="K27" s="153" t="s">
         <v>356</v>
@@ -7078,7 +7086,7 @@
       </c>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" ht="72.75" customHeight="1">
+    <row r="28" spans="1:23" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
       <c r="B28" s="66"/>
       <c r="C28" s="75"/>
@@ -7093,7 +7101,7 @@
       <c r="T28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" ht="109.5" customHeight="1">
+    <row r="29" spans="1:23" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
       <c r="B29" s="66"/>
       <c r="C29" s="75"/>
@@ -7104,7 +7112,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="52"/>
     </row>
-    <row r="30" spans="1:23" ht="52.5" customHeight="1">
+    <row r="30" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
       <c r="B30" s="66"/>
       <c r="C30" s="75"/>
@@ -7112,7 +7120,7 @@
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
       <c r="B31" s="66"/>
       <c r="C31" s="75"/>
@@ -7123,7 +7131,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="52"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
       <c r="B32" s="66"/>
       <c r="C32" s="75"/>
@@ -7134,7 +7142,7 @@
       <c r="H32" s="11"/>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
       <c r="B33" s="66"/>
       <c r="C33" s="75"/>
@@ -7146,7 +7154,7 @@
       <c r="T33" s="32"/>
       <c r="W33" s="32"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
       <c r="B34" s="66"/>
       <c r="C34" s="75"/>
@@ -7158,7 +7166,7 @@
       <c r="T34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="27" customHeight="1">
+    <row r="35" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
       <c r="B35" s="66"/>
       <c r="C35" s="75"/>
@@ -7169,7 +7177,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="52"/>
     </row>
-    <row r="36" spans="1:23" ht="27" customHeight="1">
+    <row r="36" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
       <c r="B36" s="66"/>
       <c r="C36" s="75"/>
@@ -7180,7 +7188,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="52"/>
     </row>
-    <row r="37" spans="1:23" ht="27" customHeight="1">
+    <row r="37" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
       <c r="B37" s="66"/>
       <c r="C37" s="75"/>
@@ -7193,7 +7201,7 @@
       <c r="T37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
       <c r="B38" s="66"/>
       <c r="C38" s="75"/>
@@ -7203,7 +7211,7 @@
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:23" ht="39.75" customHeight="1">
+    <row r="39" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
       <c r="B39" s="66"/>
       <c r="C39" s="75"/>
@@ -7218,7 +7226,7 @@
       <c r="T39" s="18"/>
       <c r="W39" s="18"/>
     </row>
-    <row r="40" spans="1:23" ht="39.75" customHeight="1">
+    <row r="40" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
       <c r="B40" s="66"/>
       <c r="C40" s="75"/>
@@ -7233,7 +7241,7 @@
       <c r="T40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="39.75" customHeight="1">
+    <row r="41" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
       <c r="B41" s="66"/>
       <c r="C41" s="75"/>
@@ -7248,7 +7256,7 @@
       <c r="T41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="39.75" customHeight="1">
+    <row r="42" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
       <c r="B42" s="66"/>
       <c r="C42" s="75"/>
@@ -7259,7 +7267,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="52"/>
     </row>
-    <row r="43" spans="1:23" ht="39.75" customHeight="1">
+    <row r="43" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
       <c r="B43" s="66"/>
       <c r="C43" s="75"/>
@@ -7270,7 +7278,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="52"/>
     </row>
-    <row r="44" spans="1:23" ht="39.75" customHeight="1">
+    <row r="44" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
       <c r="B44" s="66"/>
       <c r="C44" s="75"/>
@@ -7281,7 +7289,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="52"/>
     </row>
-    <row r="45" spans="1:23" ht="39.75" customHeight="1">
+    <row r="45" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
       <c r="B45" s="66"/>
       <c r="C45" s="75"/>
@@ -7292,7 +7300,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="52"/>
     </row>
-    <row r="46" spans="1:23" ht="39.75" customHeight="1">
+    <row r="46" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
       <c r="B46" s="66"/>
       <c r="C46" s="75"/>
@@ -7302,7 +7310,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:23" ht="39.75" customHeight="1">
+    <row r="47" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
       <c r="B47" s="66"/>
       <c r="C47" s="75"/>
@@ -7312,7 +7320,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:23" ht="39.75" customHeight="1">
+    <row r="48" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
       <c r="B48" s="66"/>
       <c r="C48" s="75"/>
@@ -7326,7 +7334,7 @@
       <c r="T48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="39.75" customHeight="1">
+    <row r="49" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="66"/>
       <c r="B49" s="66"/>
       <c r="C49" s="75"/>
@@ -7336,7 +7344,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:23" ht="52.5" customHeight="1">
+    <row r="50" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="66"/>
       <c r="B50" s="66"/>
       <c r="C50" s="75"/>
@@ -7346,7 +7354,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:23" ht="27" customHeight="1">
+    <row r="51" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="66"/>
       <c r="B51" s="66"/>
       <c r="C51" s="75"/>
@@ -7357,7 +7365,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="52"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="66"/>
       <c r="B52" s="66"/>
       <c r="C52" s="75"/>
@@ -7368,7 +7376,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="52"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="66"/>
       <c r="C53" s="75"/>
@@ -7383,12 +7391,12 @@
       <c r="T53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="66"/>
       <c r="C54" s="75"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
       <c r="T55" s="18"/>
@@ -7396,14 +7404,53 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="D1:E1"/>
@@ -7420,53 +7467,14 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L22" r:id="rId1" xr:uid="{9F23D411-3469-49A3-B928-6B02D9A790F8}"/>
@@ -7489,96 +7497,96 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="55.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="22" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="22" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="55" customFormat="1" ht="12">
-      <c r="A1" s="257" t="s">
+    <row r="1" spans="1:22" s="55" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="257" t="s">
+      <c r="C1" s="275" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="338" t="s">
+      <c r="D1" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="339"/>
-      <c r="F1" s="257" t="s">
+      <c r="E1" s="319"/>
+      <c r="F1" s="275" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="257" t="s">
+      <c r="G1" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="257" t="s">
+      <c r="H1" s="275" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="257" t="s">
+      <c r="I1" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="269" t="s">
+      <c r="J1" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="269" t="s">
+      <c r="K1" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="269" t="s">
+      <c r="L1" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="269" t="s">
+      <c r="M1" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="257" t="s">
+      <c r="N1" s="275" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="271" t="s">
+      <c r="P1" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="273"/>
-      <c r="S1" s="274" t="s">
+      <c r="Q1" s="280"/>
+      <c r="R1" s="281"/>
+      <c r="S1" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="267" t="s">
+      <c r="T1" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="257" t="s">
+      <c r="U1" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="257" t="s">
+      <c r="V1" s="275" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="72" customFormat="1" ht="87.75">
-      <c r="A2" s="256"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
+    <row r="2" spans="1:22" s="72" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+      <c r="A2" s="276"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="256"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="276"/>
       <c r="O2" s="71" t="s">
         <v>21</v>
       </c>
@@ -7591,19 +7599,19 @@
       <c r="R2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="275"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="183">
-      <c r="A3" s="346" t="s">
+      <c r="S2" s="283"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+    </row>
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A3" s="351" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="238" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="238" t="s">
         <v>361</v>
       </c>
       <c r="D3" s="45" t="s">
@@ -7656,10 +7664,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="183">
-      <c r="A4" s="347"/>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
+    <row r="4" spans="1:22" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="352"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
       <c r="D4" s="45" t="s">
         <v>269</v>
       </c>
@@ -7710,10 +7718,10 @@
       </c>
       <c r="V4" s="81"/>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="347"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="352"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
@@ -7736,10 +7744,10 @@
       <c r="U5" s="45"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="347"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="352"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
@@ -7762,10 +7770,10 @@
       <c r="U6" s="45"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="1:22" ht="106.5">
-      <c r="A7" s="348"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
+    <row r="7" spans="1:22" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="363"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="269"/>
       <c r="F7" t="s">
         <v>378</v>
       </c>
@@ -7788,14 +7796,14 @@
       <c r="U7" s="45"/>
       <c r="V7" s="12"/>
     </row>
-    <row r="8" spans="1:22" s="85" customFormat="1" ht="45.75">
-      <c r="A8" s="356" t="s">
+    <row r="8" spans="1:22" s="85" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="357" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="358" t="s">
+      <c r="B8" s="359" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="361" t="s">
+      <c r="C8" s="362" t="s">
         <v>381</v>
       </c>
       <c r="D8" s="85" t="s">
@@ -7840,10 +7848,10 @@
       <c r="U8" s="91"/>
       <c r="V8" s="81"/>
     </row>
-    <row r="9" spans="1:22" ht="30.75">
-      <c r="A9" s="241"/>
-      <c r="B9" s="359"/>
-      <c r="C9" s="302"/>
+    <row r="9" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="251"/>
+      <c r="B9" s="360"/>
+      <c r="C9" s="230"/>
       <c r="D9" s="45" t="s">
         <v>269</v>
       </c>
@@ -7886,10 +7894,10 @@
       <c r="U9" s="45"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:22" s="102" customFormat="1" ht="30.75">
-      <c r="A10" s="357"/>
-      <c r="B10" s="360"/>
-      <c r="C10" s="355"/>
+    <row r="10" spans="1:22" s="102" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="358"/>
+      <c r="B10" s="361"/>
+      <c r="C10" s="356"/>
       <c r="D10" s="45" t="s">
         <v>269</v>
       </c>
@@ -7926,14 +7934,14 @@
       <c r="U10" s="105"/>
       <c r="V10" s="113"/>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1">
-      <c r="A11" s="298" t="s">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="226" t="s">
         <v>391</v>
       </c>
-      <c r="B11" s="301" t="s">
+      <c r="B11" s="229" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="301" t="s">
+      <c r="C11" s="229" t="s">
         <v>393</v>
       </c>
       <c r="D11" s="16"/>
@@ -7942,7 +7950,7 @@
         <v>362</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="350" t="s">
+      <c r="H11" s="349" t="s">
         <v>394</v>
       </c>
       <c r="I11" s="45"/>
@@ -7960,17 +7968,17 @@
       <c r="U11" s="45"/>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="299"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="302"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="227"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="230"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
         <v>390</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="233"/>
+      <c r="H12" s="254"/>
       <c r="I12" s="45"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
@@ -7986,17 +7994,17 @@
       <c r="U12" s="45"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="299"/>
-      <c r="B13" s="302"/>
-      <c r="C13" s="302"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="227"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="230"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
         <v>395</v>
       </c>
       <c r="G13" s="16"/>
-      <c r="H13" s="233"/>
+      <c r="H13" s="254"/>
       <c r="I13" s="45"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -8012,17 +8020,17 @@
       <c r="U13" s="45"/>
       <c r="V13" s="12"/>
     </row>
-    <row r="14" spans="1:22" s="102" customFormat="1">
-      <c r="A14" s="354"/>
-      <c r="B14" s="355"/>
-      <c r="C14" s="355"/>
+    <row r="14" spans="1:22" s="102" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="355"/>
+      <c r="B14" s="356"/>
+      <c r="C14" s="356"/>
       <c r="D14" s="104"/>
       <c r="E14" s="104"/>
       <c r="F14" s="104" t="s">
         <v>378</v>
       </c>
       <c r="G14" s="104"/>
-      <c r="H14" s="351"/>
+      <c r="H14" s="350"/>
       <c r="I14" s="105"/>
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
@@ -8038,14 +8046,14 @@
       <c r="U14" s="105"/>
       <c r="V14" s="113"/>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1">
-      <c r="A15" s="346" t="s">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="351" t="s">
         <v>396</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="238" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="217" t="s">
+      <c r="C15" s="238" t="s">
         <v>397</v>
       </c>
       <c r="D15" s="11"/>
@@ -8070,10 +8078,10 @@
       <c r="U15" s="45"/>
       <c r="V15" s="12"/>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="347"/>
-      <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="352"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11" t="s">
@@ -8096,10 +8104,10 @@
       <c r="U16" s="45"/>
       <c r="V16" s="12"/>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="347"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="352"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="239"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
@@ -8122,10 +8130,10 @@
       <c r="U17" s="45"/>
       <c r="V17" s="12"/>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="347"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="352"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
@@ -8148,10 +8156,10 @@
       <c r="U18" s="45"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="347"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="352"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="239"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
@@ -8174,10 +8182,10 @@
       <c r="U19" s="45"/>
       <c r="V19" s="12"/>
     </row>
-    <row r="20" spans="1:22" s="102" customFormat="1">
-      <c r="A20" s="352"/>
-      <c r="B20" s="353"/>
-      <c r="C20" s="353"/>
+    <row r="20" spans="1:22" s="102" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="353"/>
+      <c r="B20" s="354"/>
+      <c r="C20" s="354"/>
       <c r="D20" s="104"/>
       <c r="E20" s="104"/>
       <c r="F20" s="104" t="s">
@@ -8200,14 +8208,14 @@
       <c r="U20" s="105"/>
       <c r="V20" s="113"/>
     </row>
-    <row r="21" spans="1:22" ht="66.75">
-      <c r="A21" s="228" t="s">
+    <row r="21" spans="1:22" ht="66" x14ac:dyDescent="0.2">
+      <c r="A21" s="232" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="349" t="s">
+      <c r="B21" s="348" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="349" t="s">
+      <c r="C21" s="348" t="s">
         <v>217</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -8255,10 +8263,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="66.75">
-      <c r="A22" s="229"/>
-      <c r="B22" s="229"/>
-      <c r="C22" s="229"/>
+    <row r="22" spans="1:22" ht="66" x14ac:dyDescent="0.2">
+      <c r="A22" s="299"/>
+      <c r="B22" s="299"/>
+      <c r="C22" s="299"/>
       <c r="D22" s="155" t="s">
         <v>401</v>
       </c>
@@ -8307,17 +8315,17 @@
       <c r="U22" s="102"/>
       <c r="V22" s="102"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D23" s="11"/>
       <c r="Q23" s="101"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q24" s="101"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q25" s="101"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="G26" s="11"/>
       <c r="H26" s="45"/>
       <c r="I26" s="45"/>
@@ -8331,7 +8339,7 @@
       <c r="T26" s="48"/>
       <c r="U26" s="45"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="49"/>
       <c r="C27" s="39"/>
@@ -8342,7 +8350,7 @@
       <c r="H27" s="45"/>
       <c r="Q27" s="101"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="49"/>
       <c r="C28" s="39"/>
@@ -8353,7 +8361,7 @@
       <c r="H28" s="24"/>
       <c r="Q28" s="101"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="49"/>
       <c r="C29" s="39"/>
@@ -8363,7 +8371,7 @@
       <c r="G29" s="11"/>
       <c r="Q29" s="101"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="49"/>
       <c r="C30" s="39"/>
@@ -8374,7 +8382,7 @@
       <c r="H30" s="24"/>
       <c r="Q30" s="101"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="49"/>
       <c r="C31" s="39"/>
@@ -8384,7 +8392,7 @@
       <c r="G31" s="11"/>
       <c r="Q31" s="101"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="49"/>
       <c r="C32" s="39"/>
@@ -8394,7 +8402,7 @@
       <c r="G32" s="11"/>
       <c r="Q32" s="101"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="49"/>
       <c r="C33" s="39"/>
@@ -8404,7 +8412,7 @@
       <c r="G33" s="11"/>
       <c r="Q33" s="101"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="49"/>
       <c r="C34" s="39"/>
@@ -8414,7 +8422,7 @@
       <c r="G34" s="11"/>
       <c r="Q34" s="101"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -8425,7 +8433,7 @@
       <c r="H35" s="24"/>
       <c r="Q35" s="101"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -8436,7 +8444,7 @@
       <c r="H36" s="24"/>
       <c r="Q36" s="101"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -8444,7 +8452,7 @@
       <c r="E37" s="40"/>
       <c r="Q37" s="101"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -8455,7 +8463,7 @@
       <c r="H38" s="24"/>
       <c r="Q38" s="101"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -8465,7 +8473,7 @@
       <c r="G39" s="11"/>
       <c r="Q39" s="101"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -8475,7 +8483,7 @@
       <c r="G40" s="11"/>
       <c r="Q40" s="101"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -8485,7 +8493,7 @@
       <c r="G41" s="11"/>
       <c r="Q41" s="101"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -8495,7 +8503,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -8505,7 +8513,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -8515,7 +8523,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -8524,7 +8532,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -8534,7 +8542,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -8544,7 +8552,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="24"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -8554,7 +8562,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -8564,7 +8572,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -8574,7 +8582,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -8584,7 +8592,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -8594,7 +8602,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -8603,7 +8611,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -8612,7 +8620,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -8621,7 +8629,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -8630,7 +8638,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -8639,7 +8647,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -8649,7 +8657,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="24"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -8659,7 +8667,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="24"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -8669,26 +8677,18 @@
       <c r="G60" s="11"/>
       <c r="H60" s="24"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -8705,17 +8705,45 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="224b8441-fd93-4731-b8be-f2834e6d0b36">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4164b0d5-3e8f-4a7a-a10c-b97e76358a9c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2236B708DAC45408DAEF1C3C11D21C5" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="949c13d012e24ac13e0f8532146438b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="224b8441-fd93-4731-b8be-f2834e6d0b36" xmlns:ns3="4164b0d5-3e8f-4a7a-a10c-b97e76358a9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcb9870a1acf7307b9b25d812093b007" ns2:_="" ns3:_="">
     <xsd:import namespace="224b8441-fd93-4731-b8be-f2834e6d0b36"/>
@@ -8970,34 +8998,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="224b8441-fd93-4731-b8be-f2834e6d0b36">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4164b0d5-3e8f-4a7a-a10c-b97e76358a9c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9201ACBF-F3AC-4ACF-AD43-9070B990538B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18445A2A-F258-4616-8311-857223D11760}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{230B6343-3F81-436A-97C4-398A034CC8CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{230B6343-3F81-436A-97C4-398A034CC8CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="224b8441-fd93-4731-b8be-f2834e6d0b36"/>
+    <ds:schemaRef ds:uri="4164b0d5-3e8f-4a7a-a10c-b97e76358a9c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18445A2A-F258-4616-8311-857223D11760}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9201ACBF-F3AC-4ACF-AD43-9070B990538B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="224b8441-fd93-4731-b8be-f2834e6d0b36"/>
+    <ds:schemaRef ds:uri="4164b0d5-3e8f-4a7a-a10c-b97e76358a9c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ServicesCatalog_v01.xlsx
+++ b/ServicesCatalog_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schirner/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130CC2C7-06AB-E241-9026-1DDE9CF46AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32627D69-4348-F84C-9CD8-F272C79940EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{339C5007-2440-476C-9204-EA225753C1D9}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="417">
   <si>
     <t>Point of Contact</t>
   </si>
@@ -1595,6 +1595,9 @@
   </si>
   <si>
     <t>CHANGE</t>
+  </si>
+  <si>
+    <t>CHANGE 2</t>
   </si>
 </sst>
 </file>
@@ -3812,7 +3815,7 @@
   <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5769,6 +5772,11 @@
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">

--- a/ServicesCatalog_v01.xlsx
+++ b/ServicesCatalog_v01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schirner/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32627D69-4348-F84C-9CD8-F272C79940EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC019F-ACA2-E440-BD2E-D971F218BF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{339C5007-2440-476C-9204-EA225753C1D9}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Point of Contact</t>
   </si>
@@ -1598,6 +1598,12 @@
   </si>
   <si>
     <t>CHANGE 2</t>
+  </si>
+  <si>
+    <t>CHANGE 3</t>
+  </si>
+  <si>
+    <t>CHANGE 4</t>
   </si>
 </sst>
 </file>
@@ -3815,7 +3821,7 @@
   <dimension ref="A1:W69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5777,6 +5783,16 @@
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
